--- a/Leak/ext_Resources/7.4kW_CCU_S.xlsx
+++ b/Leak/ext_Resources/7.4kW_CCU_S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnonymouS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0B5A3-8BE3-48C1-95FC-C9272DED4968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51E857D-9353-4CF6-9ABB-CD28325DB247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cooling" sheetId="34" r:id="rId1"/>
@@ -20,13 +20,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cooling!$A$1:$AQ$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Electronic!$A$1:$AQ$56</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>:</t>
   </si>
@@ -220,17 +223,14 @@
   <si>
     <t>D0R0P2T61</t>
   </si>
-  <si>
-    <t>Cal. Due Date:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="188" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -616,27 +616,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -689,15 +680,24 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:AS270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM39" sqref="AM39:AP39"/>
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2021,33 +2021,33 @@
       <c r="I6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
       <c r="S6" s="63"/>
       <c r="T6" s="63"/>
       <c r="U6" s="63"/>
       <c r="V6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="70" t="s">
+      <c r="W6" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="63"/>
       <c r="AG6" s="11"/>
@@ -2056,12 +2056,12 @@
       <c r="AJ6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
       <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,33 +2078,33 @@
       <c r="I7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="63"/>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
       <c r="V7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="71" t="s">
+      <c r="W7" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="63"/>
@@ -2113,12 +2113,12 @@
       <c r="AJ7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
       <c r="AQ7" s="16"/>
     </row>
     <row r="8" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,31 +2135,31 @@
       <c r="I8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="68" t="s">
+      <c r="W8" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -2168,12 +2168,12 @@
       <c r="AJ8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
       <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,9 +2338,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="91" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG12" s="66"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
@@ -2388,14 +2386,12 @@
       <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
-      <c r="AG13" s="92">
-        <v>44231</v>
-      </c>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="25"/>
       <c r="AO13" s="4"/>
@@ -3488,159 +3484,159 @@
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="75" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="76"/>
-      <c r="AG37" s="76"/>
-      <c r="AH37" s="76"/>
-      <c r="AI37" s="76"/>
-      <c r="AJ37" s="76"/>
-      <c r="AK37" s="76"/>
-      <c r="AL37" s="76"/>
-      <c r="AM37" s="76"/>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="76"/>
-      <c r="AP37" s="77"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="74"/>
       <c r="AQ37" s="33"/>
     </row>
     <row r="38" spans="1:45" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="78" t="s">
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="78" t="s">
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="81" t="s">
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="77"/>
+      <c r="AB38" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="82" t="s">
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="77"/>
+      <c r="AH38" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="AI38" s="83"/>
-      <c r="AJ38" s="83"/>
-      <c r="AK38" s="83"/>
-      <c r="AL38" s="83"/>
-      <c r="AM38" s="74" t="s">
+      <c r="AI38" s="80"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="80"/>
+      <c r="AL38" s="80"/>
+      <c r="AM38" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AN38" s="74"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
+      <c r="AN38" s="71"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="71"/>
       <c r="AQ38" s="33"/>
     </row>
     <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85" t="s">
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="85"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="86" t="s">
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="88"/>
-      <c r="AI39" s="89"/>
-      <c r="AJ39" s="89"/>
-      <c r="AK39" s="89"/>
-      <c r="AL39" s="89"/>
-      <c r="AM39" s="72" t="s">
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="85"/>
+      <c r="AI39" s="86"/>
+      <c r="AJ39" s="86"/>
+      <c r="AK39" s="86"/>
+      <c r="AL39" s="86"/>
+      <c r="AM39" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AN39" s="72"/>
-      <c r="AO39" s="72"/>
-      <c r="AP39" s="72"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
       <c r="AQ39" s="33"/>
     </row>
     <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4588,6 +4584,13 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AH39:AL39"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="W7:AD7"/>
     <mergeCell ref="AG13:AL13"/>
     <mergeCell ref="AM39:AP39"/>
     <mergeCell ref="J8:R8"/>
@@ -4604,13 +4607,6 @@
     <mergeCell ref="O39:T39"/>
     <mergeCell ref="U39:AA39"/>
     <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AH39:AL39"/>
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="W7:AD7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="M28 G28:K28" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -4727,8 +4723,8 @@
   </sheetPr>
   <dimension ref="A1:AS270"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM39" sqref="AM39:AP39"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12:AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4885,44 +4881,44 @@
       <c r="I6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="66" t="str">
+      <c r="J6" s="87" t="str">
         <f>Cooling!J6</f>
         <v>EAP00500300D1</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
       <c r="V6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="66" t="str">
+      <c r="W6" s="87" t="str">
         <f>Cooling!W6</f>
         <v>CCU-7.4K-01 XCP</v>
       </c>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
       <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4937,32 +4933,32 @@
       <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="68" t="str">
+      <c r="J7" s="69" t="str">
         <f>Cooling!J7</f>
         <v>BMW</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="V7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="68" t="str">
+      <c r="W7" s="69" t="str">
         <f>Cooling!W7</f>
         <v>D1.2</v>
       </c>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AH7" s="11"/>
@@ -4970,12 +4966,12 @@
       <c r="AJ7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
       <c r="AQ7" s="16"/>
     </row>
     <row r="8" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4992,29 +4988,29 @@
       <c r="I8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
       <c r="V8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="68" t="str">
+      <c r="W8" s="69" t="str">
         <f>Cooling!W8</f>
         <v>D0R0P2T61</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -5023,12 +5019,12 @@
       <c r="AJ8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
       <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,9 +5186,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="91" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG12" s="66"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
@@ -5240,14 +5234,12 @@
       <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
-      <c r="AG13" s="92">
-        <v>44231</v>
-      </c>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="25"/>
       <c r="AO13" s="4"/>
@@ -6328,159 +6320,159 @@
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="75" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="76"/>
-      <c r="AG37" s="76"/>
-      <c r="AH37" s="76"/>
-      <c r="AI37" s="76"/>
-      <c r="AJ37" s="76"/>
-      <c r="AK37" s="76"/>
-      <c r="AL37" s="76"/>
-      <c r="AM37" s="76"/>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="76"/>
-      <c r="AP37" s="77"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="74"/>
       <c r="AQ37" s="33"/>
     </row>
     <row r="38" spans="1:45" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="78" t="s">
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="78" t="s">
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="78" t="s">
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="77"/>
+      <c r="AB38" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="82" t="s">
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="77"/>
+      <c r="AH38" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="AI38" s="83"/>
-      <c r="AJ38" s="83"/>
-      <c r="AK38" s="83"/>
-      <c r="AL38" s="83"/>
-      <c r="AM38" s="74" t="s">
+      <c r="AI38" s="80"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="80"/>
+      <c r="AL38" s="80"/>
+      <c r="AM38" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AN38" s="74"/>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
+      <c r="AN38" s="71"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="71"/>
       <c r="AQ38" s="33"/>
     </row>
     <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85" t="s">
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="85"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="86" t="s">
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="90"/>
-      <c r="AI39" s="90"/>
-      <c r="AJ39" s="90"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="90"/>
-      <c r="AM39" s="72" t="s">
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="92"/>
+      <c r="AI39" s="92"/>
+      <c r="AJ39" s="92"/>
+      <c r="AK39" s="92"/>
+      <c r="AL39" s="92"/>
+      <c r="AM39" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AN39" s="72"/>
-      <c r="AO39" s="72"/>
-      <c r="AP39" s="72"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
       <c r="AQ39" s="33"/>
     </row>
     <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7349,12 +7341,12 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AH39:AL39"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="AK7:AP7"/>
     <mergeCell ref="J8:R8"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="AK8:AP8"/>
@@ -7366,12 +7358,12 @@
     <mergeCell ref="AH38:AL38"/>
     <mergeCell ref="AM38:AP38"/>
     <mergeCell ref="AG13:AL13"/>
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="O39:T39"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="AB39:AG39"/>
+    <mergeCell ref="AH39:AL39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="N28 H28:L28" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/Leak/ext_Resources/7.4kW_CCU_S.xlsx
+++ b/Leak/ext_Resources/7.4kW_CCU_S.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnonymouS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharpe-Leak\Leak\ext_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51E857D-9353-4CF6-9ABB-CD28325DB247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B76A320-106E-4F4A-B347-DACF7C5FC7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>:</t>
   </si>
@@ -215,22 +215,19 @@
     <t>EAP00500300D1</t>
   </si>
   <si>
-    <t>CCU-7.4K-01 XCP</t>
+    <t>Computer</t>
   </si>
   <si>
-    <t>D1.2</t>
-  </si>
-  <si>
-    <t>D0R0P2T61</t>
+    <t>HP Z230 Tower Workstation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="188" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -468,7 +465,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -512,9 +509,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -619,15 +613,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -674,30 +690,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -707,7 +711,9 @@
     <cellStyle name="Normal_env" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{74FC1DFA-D660-4D29-996B-35038D0851A5}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1860,107 +1866,107 @@
   <dimension ref="A1:AS270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="43" width="2.140625" style="29" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="43" width="2.140625" style="28" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:43" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -2014,54 +2020,52 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
       <c r="V6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
       <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,52 +2077,50 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63" t="s">
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
-      <c r="AG7" s="63"/>
+      <c r="AG7" s="62"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
       <c r="AQ7" s="16"/>
     </row>
     <row r="8" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,31 +2137,29 @@
       <c r="I8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -2168,12 +2168,12 @@
       <c r="AJ8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="70"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
       <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,86 +2223,86 @@
     </row>
     <row r="10" spans="1:43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
       <c r="AQ10" s="4"/>
     </row>
     <row r="11" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="44"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="43"/>
     </row>
     <row r="12" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3"/>
@@ -2338,20 +2338,20 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="66"/>
+      <c r="AG12" s="65"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="28"/>
+      <c r="AQ12" s="27"/>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2362,135 +2362,137 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
-      <c r="AQ13" s="28"/>
-    </row>
-    <row r="14" spans="1:43" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="AQ13" s="27"/>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="21" t="s">
+      <c r="G14" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="O14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="14"/>
+      <c r="P14" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="27"/>
     </row>
     <row r="15" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="47"/>
-      <c r="AP15" s="47"/>
-      <c r="AQ15" s="48"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="47"/>
     </row>
     <row r="16" spans="1:43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -2538,49 +2540,49 @@
       <c r="AQ16" s="4"/>
     </row>
     <row r="17" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="43"/>
-      <c r="AJ17" s="43"/>
-      <c r="AK17" s="43"/>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="43"/>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="44"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="43"/>
     </row>
     <row r="18" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -2627,112 +2629,112 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="28"/>
+      <c r="AQ18" s="27"/>
     </row>
     <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27" t="s">
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="28"/>
-      <c r="AS19" s="30"/>
+      <c r="AQ19" s="27"/>
+      <c r="AS19" s="29"/>
     </row>
     <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="59" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="47"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="46"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
-      <c r="AQ20" s="28"/>
-      <c r="AS20" s="30"/>
+      <c r="AQ20" s="27"/>
+      <c r="AS20" s="29"/>
     </row>
     <row r="21" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2774,7 +2776,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
-      <c r="AQ21" s="28"/>
+      <c r="AQ21" s="27"/>
     </row>
     <row r="22" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -2821,12 +2823,12 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
-      <c r="AQ22" s="28"/>
+      <c r="AQ22" s="27"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="3"/>
@@ -2868,106 +2870,106 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
-      <c r="AQ23" s="28"/>
+      <c r="AQ23" s="27"/>
     </row>
     <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27" t="s">
+      <c r="F24" s="64"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
       <c r="AE24" s="4"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="33"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="32"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="33"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="32"/>
       <c r="AS25" s="4"/>
     </row>
     <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2982,41 +2984,41 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
       <c r="AP26" s="4"/>
-      <c r="AQ26" s="28"/>
+      <c r="AQ26" s="27"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
     </row>
     <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3031,86 +3033,86 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
       <c r="AP27" s="4"/>
-      <c r="AQ27" s="28"/>
+      <c r="AQ27" s="27"/>
       <c r="AR27" s="4"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="57"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
       <c r="AP28" s="4"/>
-      <c r="AQ28" s="28"/>
+      <c r="AQ28" s="27"/>
       <c r="AR28" s="4"/>
     </row>
     <row r="29" spans="1:45" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3150,8 +3152,8 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
-      <c r="AP29" s="27"/>
-      <c r="AQ29" s="33"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="32"/>
     </row>
     <row r="30" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -3168,7 +3170,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="50"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3198,10 +3200,10 @@
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
-      <c r="AQ30" s="28"/>
+      <c r="AQ30" s="27"/>
     </row>
     <row r="31" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -3245,10 +3247,10 @@
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
-      <c r="AQ31" s="28"/>
+      <c r="AQ31" s="27"/>
     </row>
     <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -3291,12 +3293,12 @@
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
-      <c r="AP32" s="27"/>
-      <c r="AQ32" s="33"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="32"/>
       <c r="AS32" s="4"/>
     </row>
     <row r="33" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3338,7 +3340,7 @@
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
-      <c r="AQ33" s="28"/>
+      <c r="AQ33" s="27"/>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -3350,7 +3352,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="61" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="3"/>
@@ -3369,28 +3371,28 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="36"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="35"/>
     </row>
     <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
@@ -3399,19 +3401,19 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -3433,12 +3435,12 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
-      <c r="AP35" s="27"/>
-      <c r="AQ35" s="33"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="32"/>
       <c r="AS35" s="4"/>
     </row>
     <row r="36" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3480,168 +3482,168 @@
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
-      <c r="AQ36" s="28"/>
+      <c r="AQ36" s="27"/>
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="72" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="73"/>
-      <c r="AC37" s="73"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="73"/>
-      <c r="AF37" s="73"/>
-      <c r="AG37" s="73"/>
-      <c r="AH37" s="73"/>
-      <c r="AI37" s="73"/>
-      <c r="AJ37" s="73"/>
-      <c r="AK37" s="73"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="73"/>
-      <c r="AN37" s="73"/>
-      <c r="AO37" s="73"/>
-      <c r="AP37" s="74"/>
-      <c r="AQ37" s="33"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="79"/>
+      <c r="AL37" s="79"/>
+      <c r="AM37" s="79"/>
+      <c r="AN37" s="79"/>
+      <c r="AO37" s="79"/>
+      <c r="AP37" s="80"/>
+      <c r="AQ37" s="32"/>
     </row>
     <row r="38" spans="1:45" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="75" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="75" t="s">
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="76"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="78" t="s">
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="AC38" s="76"/>
-      <c r="AD38" s="76"/>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="76"/>
-      <c r="AG38" s="77"/>
-      <c r="AH38" s="79" t="s">
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="83"/>
+      <c r="AH38" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AI38" s="80"/>
-      <c r="AJ38" s="80"/>
-      <c r="AK38" s="80"/>
-      <c r="AL38" s="80"/>
-      <c r="AM38" s="71" t="s">
+      <c r="AI38" s="86"/>
+      <c r="AJ38" s="86"/>
+      <c r="AK38" s="86"/>
+      <c r="AL38" s="86"/>
+      <c r="AM38" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="33"/>
+      <c r="AN38" s="77"/>
+      <c r="AO38" s="77"/>
+      <c r="AP38" s="77"/>
+      <c r="AQ38" s="32"/>
     </row>
     <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82" t="s">
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="83" t="s">
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="85"/>
-      <c r="AI39" s="86"/>
-      <c r="AJ39" s="86"/>
-      <c r="AK39" s="86"/>
-      <c r="AL39" s="86"/>
-      <c r="AM39" s="68" t="s">
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN39" s="68"/>
-      <c r="AO39" s="68"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="33"/>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="75"/>
+      <c r="AP39" s="75"/>
+      <c r="AQ39" s="32"/>
     </row>
     <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3681,12 +3683,12 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="33"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="32"/>
     </row>
     <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3726,12 +3728,12 @@
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="33"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="32"/>
     </row>
     <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3771,12 +3773,12 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="33"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="32"/>
     </row>
     <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3815,13 +3817,13 @@
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="28"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="27"/>
     </row>
     <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3861,12 +3863,12 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="33"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="32"/>
     </row>
     <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3906,12 +3908,12 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="33"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="32"/>
     </row>
     <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3950,193 +3952,193 @@
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="28"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="27"/>
     </row>
     <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="36"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="35"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="36"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="35"/>
     </row>
     <row r="49" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="47"/>
-      <c r="AL49" s="47"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="48"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
+      <c r="AQ49" s="47"/>
     </row>
     <row r="50" spans="1:43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="AQ50" s="4"/>
     </row>
     <row r="51" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="43"/>
-      <c r="AE51" s="43"/>
-      <c r="AF51" s="43"/>
-      <c r="AG51" s="43"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="43"/>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="43"/>
-      <c r="AM51" s="43"/>
-      <c r="AN51" s="43"/>
-      <c r="AO51" s="43"/>
-      <c r="AP51" s="43"/>
-      <c r="AQ51" s="44"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="42"/>
+      <c r="AH51" s="42"/>
+      <c r="AI51" s="42"/>
+      <c r="AJ51" s="42"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
+      <c r="AM51" s="42"/>
+      <c r="AN51" s="42"/>
+      <c r="AO51" s="42"/>
+      <c r="AP51" s="42"/>
+      <c r="AQ51" s="43"/>
     </row>
     <row r="52" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -4183,10 +4185,10 @@
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
       <c r="AP52" s="4"/>
-      <c r="AQ52" s="28"/>
+      <c r="AQ52" s="27"/>
     </row>
     <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4228,142 +4230,142 @@
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4"/>
-      <c r="AQ53" s="28"/>
+      <c r="AQ53" s="27"/>
     </row>
     <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="25"/>
-      <c r="AG54" s="25"/>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="25"/>
-      <c r="AJ54" s="25"/>
-      <c r="AK54" s="25"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="25"/>
-      <c r="AN54" s="25"/>
-      <c r="AO54" s="25"/>
-      <c r="AP54" s="25"/>
-      <c r="AQ54" s="36"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="35"/>
     </row>
     <row r="55" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="47"/>
-      <c r="AL55" s="47"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
-      <c r="AQ55" s="48"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="47"/>
     </row>
     <row r="56" spans="1:43" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="63"/>
-      <c r="X56" s="63"/>
-      <c r="Y56" s="63"/>
-      <c r="Z56" s="63"/>
-      <c r="AA56" s="63"/>
-      <c r="AB56" s="63"/>
-      <c r="AC56" s="63"/>
-      <c r="AD56" s="63"/>
-      <c r="AE56" s="63"/>
-      <c r="AF56" s="63"/>
-      <c r="AG56" s="63"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="63"/>
-      <c r="AJ56" s="63"/>
-      <c r="AK56" s="63"/>
-      <c r="AL56" s="63"/>
-      <c r="AM56" s="63"/>
-      <c r="AN56" s="63"/>
-      <c r="AO56" s="63"/>
-      <c r="AP56" s="63"/>
-      <c r="AQ56" s="64" t="e">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
+      <c r="AD56" s="62"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62"/>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="62"/>
+      <c r="AM56" s="62"/>
+      <c r="AN56" s="62"/>
+      <c r="AO56" s="62"/>
+      <c r="AP56" s="62"/>
+      <c r="AQ56" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4584,6 +4586,13 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AH38:AL38"/>
+    <mergeCell ref="AM38:AP38"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="O39:T39"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="AB39:AG39"/>
     <mergeCell ref="AH39:AL39"/>
     <mergeCell ref="J6:R6"/>
     <mergeCell ref="AK6:AP6"/>
@@ -4600,13 +4609,6 @@
     <mergeCell ref="O38:T38"/>
     <mergeCell ref="U38:AA38"/>
     <mergeCell ref="AB38:AG38"/>
-    <mergeCell ref="AH38:AL38"/>
-    <mergeCell ref="AM38:AP38"/>
-    <mergeCell ref="W8:AD8"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="AB39:AG39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="M28 G28:K28" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -4723,108 +4725,108 @@
   </sheetPr>
   <dimension ref="A1:AS270"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12:AO14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AU18" sqref="AU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="43" width="2.140625" style="29" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="43" width="2.140625" style="28" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:43" s="5" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -4881,44 +4883,41 @@
       <c r="I6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="87" t="str">
+      <c r="J6" s="68" t="str">
         <f>Cooling!J6</f>
         <v>EAP00500300D1</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
       <c r="V6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="87" t="str">
-        <f>Cooling!W6</f>
-        <v>CCU-7.4K-01 XCP</v>
-      </c>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
       <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4933,32 +4932,29 @@
       <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="69" t="str">
+      <c r="J7" s="70" t="str">
         <f>Cooling!J7</f>
         <v>BMW</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
       <c r="V7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="69" t="str">
-        <f>Cooling!W7</f>
-        <v>D1.2</v>
-      </c>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AH7" s="11"/>
@@ -4966,12 +4962,12 @@
       <c r="AJ7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
       <c r="AQ7" s="16"/>
     </row>
     <row r="8" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4988,29 +4984,26 @@
       <c r="I8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
       <c r="V8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="69" t="str">
-        <f>Cooling!W8</f>
-        <v>D0R0P2T61</v>
-      </c>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -5019,12 +5012,12 @@
       <c r="AJ8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="70"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
       <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5073,86 +5066,86 @@
       <c r="AQ9" s="20"/>
     </row>
     <row r="10" spans="1:43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="44"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="43"/>
     </row>
     <row r="12" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3"/>
@@ -5186,20 +5179,20 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="66"/>
+      <c r="AG12" s="65"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="28"/>
+      <c r="AQ12" s="27"/>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -5210,133 +5203,137 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
-      <c r="AQ13" s="28"/>
-    </row>
-    <row r="14" spans="1:43" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="AQ13" s="27"/>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="O14" s="21" t="s">
+      <c r="G14" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="O14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="14"/>
+      <c r="P14" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="27"/>
     </row>
     <row r="15" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="47"/>
-      <c r="AP15" s="47"/>
-      <c r="AQ15" s="48"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="47"/>
     </row>
     <row r="16" spans="1:43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -5384,49 +5381,49 @@
       <c r="AQ16" s="4"/>
     </row>
     <row r="17" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="43"/>
-      <c r="AJ17" s="43"/>
-      <c r="AK17" s="43"/>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="43"/>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="44"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="43"/>
     </row>
     <row r="18" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -5473,112 +5470,112 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="28"/>
+      <c r="AQ18" s="27"/>
     </row>
     <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27" t="s">
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="28"/>
-      <c r="AS19" s="30"/>
+      <c r="AQ19" s="27"/>
+      <c r="AS19" s="29"/>
     </row>
     <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="59" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="47"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="46"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
-      <c r="AQ20" s="28"/>
-      <c r="AS20" s="30"/>
+      <c r="AQ20" s="27"/>
+      <c r="AS20" s="29"/>
     </row>
     <row r="21" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5620,7 +5617,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
-      <c r="AQ21" s="28"/>
+      <c r="AQ21" s="27"/>
     </row>
     <row r="22" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -5667,7 +5664,7 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
-      <c r="AQ22" s="28"/>
+      <c r="AQ22" s="27"/>
     </row>
     <row r="23" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -5714,12 +5711,12 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
-      <c r="AQ23" s="28"/>
+      <c r="AQ23" s="27"/>
     </row>
     <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>43</v>
@@ -5738,24 +5735,24 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="33"/>
+      <c r="T24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="32"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
         <v>48</v>
@@ -5774,35 +5771,35 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="33"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="32"/>
       <c r="AS25" s="4"/>
     </row>
     <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -5822,36 +5819,36 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
       <c r="AP26" s="4"/>
-      <c r="AQ26" s="28"/>
+      <c r="AQ26" s="27"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
     </row>
     <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
@@ -5871,83 +5868,83 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
       <c r="AP27" s="4"/>
-      <c r="AQ27" s="28"/>
+      <c r="AQ27" s="27"/>
       <c r="AR27" s="4"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="57"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="56"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
       <c r="AP28" s="4"/>
-      <c r="AQ28" s="28"/>
+      <c r="AQ28" s="27"/>
       <c r="AR28" s="4"/>
     </row>
     <row r="29" spans="1:45" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5987,8 +5984,8 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
-      <c r="AP29" s="27"/>
-      <c r="AQ29" s="33"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="32"/>
     </row>
     <row r="30" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -6005,7 +6002,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="50"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -6035,10 +6032,10 @@
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
-      <c r="AQ30" s="28"/>
+      <c r="AQ30" s="27"/>
     </row>
     <row r="31" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -6082,12 +6079,12 @@
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
-      <c r="AQ31" s="28"/>
+      <c r="AQ31" s="27"/>
     </row>
     <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="4"/>
@@ -6128,12 +6125,12 @@
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
-      <c r="AP32" s="27"/>
-      <c r="AQ32" s="33"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="32"/>
       <c r="AS32" s="4"/>
     </row>
     <row r="33" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6175,7 +6172,7 @@
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
-      <c r="AQ33" s="28"/>
+      <c r="AQ33" s="27"/>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -6187,7 +6184,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="61" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="3"/>
@@ -6206,28 +6203,28 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="36"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="35"/>
     </row>
     <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
@@ -6235,19 +6232,19 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -6269,12 +6266,12 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
-      <c r="AP35" s="27"/>
-      <c r="AQ35" s="33"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="32"/>
       <c r="AS35" s="4"/>
     </row>
     <row r="36" spans="1:45" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6316,168 +6313,168 @@
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
-      <c r="AQ36" s="28"/>
+      <c r="AQ36" s="27"/>
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="72" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="73"/>
-      <c r="AC37" s="73"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="73"/>
-      <c r="AF37" s="73"/>
-      <c r="AG37" s="73"/>
-      <c r="AH37" s="73"/>
-      <c r="AI37" s="73"/>
-      <c r="AJ37" s="73"/>
-      <c r="AK37" s="73"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="73"/>
-      <c r="AN37" s="73"/>
-      <c r="AO37" s="73"/>
-      <c r="AP37" s="74"/>
-      <c r="AQ37" s="33"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="79"/>
+      <c r="AL37" s="79"/>
+      <c r="AM37" s="79"/>
+      <c r="AN37" s="79"/>
+      <c r="AO37" s="79"/>
+      <c r="AP37" s="80"/>
+      <c r="AQ37" s="32"/>
     </row>
     <row r="38" spans="1:45" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="75" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="75" t="s">
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="76"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="75" t="s">
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AC38" s="76"/>
-      <c r="AD38" s="76"/>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="76"/>
-      <c r="AG38" s="77"/>
-      <c r="AH38" s="79" t="s">
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="83"/>
+      <c r="AH38" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AI38" s="80"/>
-      <c r="AJ38" s="80"/>
-      <c r="AK38" s="80"/>
-      <c r="AL38" s="80"/>
-      <c r="AM38" s="71" t="s">
+      <c r="AI38" s="86"/>
+      <c r="AJ38" s="86"/>
+      <c r="AK38" s="86"/>
+      <c r="AL38" s="86"/>
+      <c r="AM38" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="33"/>
+      <c r="AN38" s="77"/>
+      <c r="AO38" s="77"/>
+      <c r="AP38" s="77"/>
+      <c r="AQ38" s="32"/>
     </row>
     <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82" t="s">
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="83" t="s">
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="92"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="92"/>
-      <c r="AL39" s="92"/>
-      <c r="AM39" s="68" t="s">
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="91"/>
+      <c r="AI39" s="91"/>
+      <c r="AJ39" s="91"/>
+      <c r="AK39" s="91"/>
+      <c r="AL39" s="91"/>
+      <c r="AM39" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AN39" s="68"/>
-      <c r="AO39" s="68"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="33"/>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="75"/>
+      <c r="AP39" s="75"/>
+      <c r="AQ39" s="32"/>
     </row>
     <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -6517,12 +6514,12 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="33"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="32"/>
     </row>
     <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -6562,12 +6559,12 @@
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="33"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="32"/>
     </row>
     <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -6607,12 +6604,12 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="33"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="32"/>
     </row>
     <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -6651,13 +6648,13 @@
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="28"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="27"/>
     </row>
     <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -6697,12 +6694,12 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="33"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="32"/>
     </row>
     <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -6742,12 +6739,12 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="33"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="32"/>
     </row>
     <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -6786,190 +6783,190 @@
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="28"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="27"/>
     </row>
     <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="36"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="35"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="36"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="35"/>
     </row>
     <row r="49" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="47"/>
-      <c r="AL49" s="47"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="48"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
+      <c r="AQ49" s="47"/>
     </row>
     <row r="50" spans="1:43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="43"/>
-      <c r="AE51" s="43"/>
-      <c r="AF51" s="43"/>
-      <c r="AG51" s="43"/>
-      <c r="AH51" s="43"/>
-      <c r="AI51" s="43"/>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="43"/>
-      <c r="AM51" s="43"/>
-      <c r="AN51" s="43"/>
-      <c r="AO51" s="43"/>
-      <c r="AP51" s="43"/>
-      <c r="AQ51" s="44"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="42"/>
+      <c r="AH51" s="42"/>
+      <c r="AI51" s="42"/>
+      <c r="AJ51" s="42"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
+      <c r="AM51" s="42"/>
+      <c r="AN51" s="42"/>
+      <c r="AO51" s="42"/>
+      <c r="AP51" s="42"/>
+      <c r="AQ51" s="43"/>
     </row>
     <row r="52" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -6999,10 +6996,10 @@
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
       <c r="AP52" s="4"/>
-      <c r="AQ52" s="28"/>
+      <c r="AQ52" s="27"/>
     </row>
     <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -7027,97 +7024,97 @@
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4"/>
-      <c r="AQ53" s="28"/>
+      <c r="AQ53" s="27"/>
     </row>
     <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="25"/>
-      <c r="AG54" s="25"/>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="25"/>
-      <c r="AJ54" s="25"/>
-      <c r="AK54" s="25"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="25"/>
-      <c r="AN54" s="25"/>
-      <c r="AO54" s="25"/>
-      <c r="AP54" s="25"/>
-      <c r="AQ54" s="36"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="35"/>
     </row>
     <row r="55" spans="1:43" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="47"/>
-      <c r="AL55" s="47"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
-      <c r="AQ55" s="48"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="47"/>
     </row>
     <row r="56" spans="1:43" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AQ56" s="1" t="e">
@@ -7341,12 +7338,12 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J6:R6"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="AK6:AP6"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="AM39:AP39"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="O39:T39"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="AB39:AG39"/>
+    <mergeCell ref="AH39:AL39"/>
     <mergeCell ref="J8:R8"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="AK8:AP8"/>
@@ -7358,12 +7355,12 @@
     <mergeCell ref="AH38:AL38"/>
     <mergeCell ref="AM38:AP38"/>
     <mergeCell ref="AG13:AL13"/>
-    <mergeCell ref="AM39:AP39"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AH39:AL39"/>
+    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="AK7:AP7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="N28 H28:L28" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
